--- a/src/predicciones/holt_winters/producto_73.xlsx
+++ b/src/predicciones/holt_winters/producto_73.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1914 +404,1914 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>1.333482945488581</v>
+        <v>1.56815236229441</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44932</v>
       </c>
       <c r="B3">
-        <v>1.192330698501439</v>
+        <v>1.239713618375325</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44934</v>
       </c>
       <c r="B4">
-        <v>1.250502842048071</v>
+        <v>1.272099832934045</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44938</v>
       </c>
       <c r="B5">
-        <v>1.216241286143538</v>
+        <v>1.143107129653398</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44939</v>
       </c>
       <c r="B6">
-        <v>1.273031966199215</v>
+        <v>1.14569541374</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44940</v>
       </c>
       <c r="B7">
-        <v>1.188426496304765</v>
+        <v>1.159891152305518</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44942</v>
       </c>
       <c r="B8">
-        <v>1.312249556041191</v>
+        <v>1.162081406795263</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44948</v>
       </c>
       <c r="B9">
-        <v>1.332639645424093</v>
+        <v>1.571723751712391</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44950</v>
       </c>
       <c r="B10">
-        <v>1.191487398436951</v>
+        <v>1.243285007793305</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44955</v>
       </c>
       <c r="B11">
-        <v>1.249659541983583</v>
+        <v>1.275671222352026</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44958</v>
       </c>
       <c r="B12">
-        <v>1.21539798607905</v>
+        <v>1.146678519071379</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44963</v>
       </c>
       <c r="B13">
-        <v>1.272188666134727</v>
+        <v>1.149266803157981</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44967</v>
       </c>
       <c r="B14">
-        <v>1.187583196240278</v>
+        <v>1.163462541723499</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44970</v>
       </c>
       <c r="B15">
-        <v>1.311406255976703</v>
+        <v>1.165652796213244</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44972</v>
       </c>
       <c r="B16">
-        <v>1.331796345359606</v>
+        <v>1.575295141130372</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44973</v>
       </c>
       <c r="B17">
-        <v>1.190644098372464</v>
+        <v>1.246856397211286</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44978</v>
       </c>
       <c r="B18">
-        <v>1.248816241919095</v>
+        <v>1.279242611770006</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44979</v>
       </c>
       <c r="B19">
-        <v>1.214554686014562</v>
+        <v>1.150249908489359</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44980</v>
       </c>
       <c r="B20">
-        <v>1.271345366070239</v>
+        <v>1.152838192575961</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44981</v>
       </c>
       <c r="B21">
-        <v>1.18673989617579</v>
+        <v>1.167033931141479</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44982</v>
       </c>
       <c r="B22">
-        <v>1.310562955912215</v>
+        <v>1.169224185631224</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44986</v>
       </c>
       <c r="B23">
-        <v>1.330953045295117</v>
+        <v>1.578866530548352</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44990</v>
       </c>
       <c r="B24">
-        <v>1.189800798307976</v>
+        <v>1.250427786629266</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44991</v>
       </c>
       <c r="B25">
-        <v>1.247972941854607</v>
+        <v>1.282814001187987</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44995</v>
       </c>
       <c r="B26">
-        <v>1.213711385950075</v>
+        <v>1.153821297907339</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44998</v>
       </c>
       <c r="B27">
-        <v>1.270502066005751</v>
+        <v>1.156409581993942</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44999</v>
       </c>
       <c r="B28">
-        <v>1.185896596111302</v>
+        <v>1.17060532055946</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45000</v>
       </c>
       <c r="B29">
-        <v>1.309719655847727</v>
+        <v>1.172795575049205</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45001</v>
       </c>
       <c r="B30">
-        <v>1.33010974523063</v>
+        <v>1.582437919966332</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45007</v>
       </c>
       <c r="B31">
-        <v>1.188957498243488</v>
+        <v>1.253999176047247</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45008</v>
       </c>
       <c r="B32">
-        <v>1.247129641790119</v>
+        <v>1.286385390605967</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45010</v>
       </c>
       <c r="B33">
-        <v>1.212868085885587</v>
+        <v>1.15739268732532</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45013</v>
       </c>
       <c r="B34">
-        <v>1.269658765941263</v>
+        <v>1.159980971411922</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45015</v>
       </c>
       <c r="B35">
-        <v>1.185053296046814</v>
+        <v>1.17417670997744</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45019</v>
       </c>
       <c r="B36">
-        <v>1.308876355783239</v>
+        <v>1.176366964467185</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45020</v>
       </c>
       <c r="B37">
-        <v>1.329266445166142</v>
+        <v>1.586009309384313</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45021</v>
       </c>
       <c r="B38">
-        <v>1.188114198179</v>
+        <v>1.257570565465227</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45025</v>
       </c>
       <c r="B39">
-        <v>1.246286341725631</v>
+        <v>1.289956780023948</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45026</v>
       </c>
       <c r="B40">
-        <v>1.212024785821099</v>
+        <v>1.1609640767433</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45027</v>
       </c>
       <c r="B41">
-        <v>1.268815465876775</v>
+        <v>1.163552360829903</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45028</v>
       </c>
       <c r="B42">
-        <v>1.184209995982326</v>
+        <v>1.177748099395421</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45029</v>
       </c>
       <c r="B43">
-        <v>1.308033055718751</v>
+        <v>1.179938353885166</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45032</v>
       </c>
       <c r="B44">
-        <v>1.328423145101654</v>
+        <v>1.589580698802293</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45035</v>
       </c>
       <c r="B45">
-        <v>1.187270898114512</v>
+        <v>1.261141954883208</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45038</v>
       </c>
       <c r="B46">
-        <v>1.245443041661143</v>
+        <v>1.293528169441928</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45040</v>
       </c>
       <c r="B47">
-        <v>1.211181485756611</v>
+        <v>1.164535466161281</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45051</v>
       </c>
       <c r="B48">
-        <v>1.267972165812288</v>
+        <v>1.167123750247883</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45053</v>
       </c>
       <c r="B49">
-        <v>1.183366695917838</v>
+        <v>1.181319488813401</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45054</v>
       </c>
       <c r="B50">
-        <v>1.307189755654264</v>
+        <v>1.183509743303146</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45057</v>
       </c>
       <c r="B51">
-        <v>1.327579845037166</v>
+        <v>1.593152088220274</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45058</v>
       </c>
       <c r="B52">
-        <v>1.186427598050024</v>
+        <v>1.264713344301188</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45059</v>
       </c>
       <c r="B53">
-        <v>1.244599741596655</v>
+        <v>1.297099558859909</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45061</v>
       </c>
       <c r="B54">
-        <v>1.210338185692123</v>
+        <v>1.168106855579261</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45062</v>
       </c>
       <c r="B55">
-        <v>1.267128865747799</v>
+        <v>1.170695139665863</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45071</v>
       </c>
       <c r="B56">
-        <v>1.18252339585335</v>
+        <v>1.184890878231382</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45072</v>
       </c>
       <c r="B57">
-        <v>1.306346455589776</v>
+        <v>1.187081132721126</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45077</v>
       </c>
       <c r="B58">
-        <v>1.326736544972678</v>
+        <v>1.596723477638254</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45078</v>
       </c>
       <c r="B59">
-        <v>1.185584297985536</v>
+        <v>1.268284733719168</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45082</v>
       </c>
       <c r="B60">
-        <v>1.243756441532168</v>
+        <v>1.300670948277889</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45085</v>
       </c>
       <c r="B61">
-        <v>1.209494885627635</v>
+        <v>1.171678244997242</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45088</v>
       </c>
       <c r="B62">
-        <v>1.266285565683312</v>
+        <v>1.174266529083844</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45089</v>
       </c>
       <c r="B63">
-        <v>1.181680095788862</v>
+        <v>1.188462267649362</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45094</v>
       </c>
       <c r="B64">
-        <v>1.305503155525288</v>
+        <v>1.190652522139107</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45095</v>
       </c>
       <c r="B65">
-        <v>1.32589324490819</v>
+        <v>1.600294867056235</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45097</v>
       </c>
       <c r="B66">
-        <v>1.184740997921048</v>
+        <v>1.271856123137149</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45100</v>
       </c>
       <c r="B67">
-        <v>1.24291314146768</v>
+        <v>1.30424233769587</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45101</v>
       </c>
       <c r="B68">
-        <v>1.208651585563147</v>
+        <v>1.175249634415222</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45104</v>
       </c>
       <c r="B69">
-        <v>1.265442265618824</v>
+        <v>1.177837918501824</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45105</v>
       </c>
       <c r="B70">
-        <v>1.180836795724374</v>
+        <v>1.192033657067343</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45110</v>
       </c>
       <c r="B71">
-        <v>1.3046598554608</v>
+        <v>1.194223911557087</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45113</v>
       </c>
       <c r="B72">
-        <v>1.325049944843702</v>
+        <v>1.603866256474215</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45114</v>
       </c>
       <c r="B73">
-        <v>1.18389769785656</v>
+        <v>1.27542751255513</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45115</v>
       </c>
       <c r="B74">
-        <v>1.242069841403192</v>
+        <v>1.30781372711385</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45117</v>
       </c>
       <c r="B75">
-        <v>1.207808285498659</v>
+        <v>1.178821023833203</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45119</v>
       </c>
       <c r="B76">
-        <v>1.264598965554336</v>
+        <v>1.181409307919805</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45120</v>
       </c>
       <c r="B77">
-        <v>1.179993495659887</v>
+        <v>1.195605046485323</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45122</v>
       </c>
       <c r="B78">
-        <v>1.303816555396312</v>
+        <v>1.197795300975068</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45130</v>
       </c>
       <c r="B79">
-        <v>1.324206644779214</v>
+        <v>1.607437645892195</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45132</v>
       </c>
       <c r="B80">
-        <v>1.183054397792072</v>
+        <v>1.27899890197311</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45133</v>
       </c>
       <c r="B81">
-        <v>1.241226541338704</v>
+        <v>1.31138511653183</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45134</v>
       </c>
       <c r="B82">
-        <v>1.206964985434171</v>
+        <v>1.182392413251183</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45141</v>
       </c>
       <c r="B83">
-        <v>1.263755665489848</v>
+        <v>1.184980697337785</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45142</v>
       </c>
       <c r="B84">
-        <v>1.179150195595399</v>
+        <v>1.199176435903303</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45152</v>
       </c>
       <c r="B85">
-        <v>1.302973255331824</v>
+        <v>1.201366690393048</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45157</v>
       </c>
       <c r="B86">
-        <v>1.323363344714726</v>
+        <v>1.611009035310176</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45158</v>
       </c>
       <c r="B87">
-        <v>1.182211097727584</v>
+        <v>1.28257029139109</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45159</v>
       </c>
       <c r="B88">
-        <v>1.240383241274216</v>
+        <v>1.314956505949811</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45160</v>
       </c>
       <c r="B89">
-        <v>1.206121685369683</v>
+        <v>1.185963802669164</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45162</v>
       </c>
       <c r="B90">
-        <v>1.26291236542536</v>
+        <v>1.188552086755766</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45163</v>
       </c>
       <c r="B91">
-        <v>1.178306895530911</v>
+        <v>1.202747825321284</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45165</v>
       </c>
       <c r="B92">
-        <v>1.302129955267336</v>
+        <v>1.204938079811029</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45166</v>
       </c>
       <c r="B93">
-        <v>1.322520044650239</v>
+        <v>1.614580424728156</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45168</v>
       </c>
       <c r="B94">
-        <v>1.181367797663097</v>
+        <v>1.286141680809071</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45170</v>
       </c>
       <c r="B95">
-        <v>1.239539941209728</v>
+        <v>1.318527895367791</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45171</v>
       </c>
       <c r="B96">
-        <v>1.205278385305196</v>
+        <v>1.189535192087144</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45174</v>
       </c>
       <c r="B97">
-        <v>1.262069065360872</v>
+        <v>1.192123476173746</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45175</v>
       </c>
       <c r="B98">
-        <v>1.177463595466423</v>
+        <v>1.206319214739265</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45177</v>
       </c>
       <c r="B99">
-        <v>1.301286655202848</v>
+        <v>1.208509469229009</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45178</v>
       </c>
       <c r="B100">
-        <v>1.321676744585751</v>
+        <v>1.618151814146137</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45179</v>
       </c>
       <c r="B101">
-        <v>1.180524497598609</v>
+        <v>1.289713070227051</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45189</v>
       </c>
       <c r="B102">
-        <v>1.23869664114524</v>
+        <v>1.322099284785772</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45191</v>
       </c>
       <c r="B103">
-        <v>1.204435085240708</v>
+        <v>1.193106581505125</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45192</v>
       </c>
       <c r="B104">
-        <v>1.261225765296384</v>
+        <v>1.195694865591727</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45193</v>
       </c>
       <c r="B105">
-        <v>1.176620295401935</v>
+        <v>1.209890604157245</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45194</v>
       </c>
       <c r="B106">
-        <v>1.30044335513836</v>
+        <v>1.21208085864699</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45195</v>
       </c>
       <c r="B107">
-        <v>1.320833444521263</v>
+        <v>1.621723203564117</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45199</v>
       </c>
       <c r="B108">
-        <v>1.179681197534121</v>
+        <v>1.293284459645032</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45203</v>
       </c>
       <c r="B109">
-        <v>1.237853341080752</v>
+        <v>1.325670674203752</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45205</v>
       </c>
       <c r="B110">
-        <v>1.20359178517622</v>
+        <v>1.196677970923105</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45211</v>
       </c>
       <c r="B111">
-        <v>1.260382465231896</v>
+        <v>1.199266255009707</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45214</v>
       </c>
       <c r="B112">
-        <v>1.175776995337447</v>
+        <v>1.213461993575225</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45215</v>
       </c>
       <c r="B113">
-        <v>1.299600055073872</v>
+        <v>1.21565224806497</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45220</v>
       </c>
       <c r="B114">
-        <v>1.319990144456775</v>
+        <v>1.625294592982098</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45223</v>
       </c>
       <c r="B115">
-        <v>1.178837897469633</v>
+        <v>1.296855849063012</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45224</v>
       </c>
       <c r="B116">
-        <v>1.237010041016264</v>
+        <v>1.329242063621733</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45228</v>
       </c>
       <c r="B117">
-        <v>1.202748485111732</v>
+        <v>1.200249360341086</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45234</v>
       </c>
       <c r="B118">
-        <v>1.259539165167408</v>
+        <v>1.202837644427688</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45235</v>
       </c>
       <c r="B119">
-        <v>1.174933695272959</v>
+        <v>1.217033382993206</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45236</v>
       </c>
       <c r="B120">
-        <v>1.298756755009385</v>
+        <v>1.219223637482951</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45237</v>
       </c>
       <c r="B121">
-        <v>1.319146844392287</v>
+        <v>1.628865982400078</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45238</v>
       </c>
       <c r="B122">
-        <v>1.177994597405145</v>
+        <v>1.300427238480993</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45240</v>
       </c>
       <c r="B123">
-        <v>1.236166740951776</v>
+        <v>1.332813453039713</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45241</v>
       </c>
       <c r="B124">
-        <v>1.201905185047244</v>
+        <v>1.203820749759066</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45242</v>
       </c>
       <c r="B125">
-        <v>1.258695865102921</v>
+        <v>1.206409033845668</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45245</v>
       </c>
       <c r="B126">
-        <v>1.174090395208471</v>
+        <v>1.220604772411186</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45246</v>
       </c>
       <c r="B127">
-        <v>1.297913454944897</v>
+        <v>1.222795026900931</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45247</v>
       </c>
       <c r="B128">
-        <v>1.318303544327799</v>
+        <v>1.632437371818059</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45248</v>
       </c>
       <c r="B129">
-        <v>1.177151297340657</v>
+        <v>1.303998627898973</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45250</v>
       </c>
       <c r="B130">
-        <v>1.235323440887288</v>
+        <v>1.336384842457694</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45251</v>
       </c>
       <c r="B131">
-        <v>1.201061884982756</v>
+        <v>1.207392139177047</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45255</v>
       </c>
       <c r="B132">
-        <v>1.257852565038433</v>
+        <v>1.209980423263649</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45260</v>
       </c>
       <c r="B133">
-        <v>1.173247095143983</v>
+        <v>1.224176161829167</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45262</v>
       </c>
       <c r="B134">
-        <v>1.297070154880409</v>
+        <v>1.226366416318912</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45263</v>
       </c>
       <c r="B135">
-        <v>1.317460244263311</v>
+        <v>1.636008761236039</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45264</v>
       </c>
       <c r="B136">
-        <v>1.176307997276169</v>
+        <v>1.307570017316954</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45265</v>
       </c>
       <c r="B137">
-        <v>1.234480140822801</v>
+        <v>1.339956231875674</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45266</v>
       </c>
       <c r="B138">
-        <v>1.200218584918268</v>
+        <v>1.210963528595027</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45270</v>
       </c>
       <c r="B139">
-        <v>1.257009264973945</v>
+        <v>1.213551812681629</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45271</v>
       </c>
       <c r="B140">
-        <v>1.172403795079495</v>
+        <v>1.227747551247147</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45272</v>
       </c>
       <c r="B141">
-        <v>1.296226854815921</v>
+        <v>1.229937805736892</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45273</v>
       </c>
       <c r="B142">
-        <v>1.316616944198823</v>
+        <v>1.63958015065402</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45274</v>
       </c>
       <c r="B143">
-        <v>1.175464697211681</v>
+        <v>1.311141406734934</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45275</v>
       </c>
       <c r="B144">
-        <v>1.233636840758313</v>
+        <v>1.343527621293655</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45276</v>
       </c>
       <c r="B145">
-        <v>1.19937528485378</v>
+        <v>1.214534918013007</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45279</v>
       </c>
       <c r="B146">
-        <v>1.256165964909457</v>
+        <v>1.217123202099609</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45280</v>
       </c>
       <c r="B147">
-        <v>1.171560495015007</v>
+        <v>1.231318940665128</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45283</v>
       </c>
       <c r="B148">
-        <v>1.295383554751433</v>
+        <v>1.233509195154872</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45288</v>
       </c>
       <c r="B149">
-        <v>1.315773644134335</v>
+        <v>1.643151540072</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45290</v>
       </c>
       <c r="B150">
-        <v>1.174621397147193</v>
+        <v>1.314712796152915</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45291</v>
       </c>
       <c r="B151">
-        <v>1.232793540693825</v>
+        <v>1.347099010711635</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45293</v>
       </c>
       <c r="B152">
-        <v>1.198531984789292</v>
+        <v>1.218106307430988</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45296</v>
       </c>
       <c r="B153">
-        <v>1.255322664844969</v>
+        <v>1.22069459151759</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45297</v>
       </c>
       <c r="B154">
-        <v>1.17071719495052</v>
+        <v>1.234890330083108</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45298</v>
       </c>
       <c r="B155">
-        <v>1.294540254686945</v>
+        <v>1.237080584572853</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45302</v>
       </c>
       <c r="B156">
-        <v>1.314930344069847</v>
+        <v>1.646722929489981</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45303</v>
       </c>
       <c r="B157">
-        <v>1.173778097082705</v>
+        <v>1.318284185570895</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45305</v>
       </c>
       <c r="B158">
-        <v>1.231950240629337</v>
+        <v>1.350670400129616</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45306</v>
       </c>
       <c r="B159">
-        <v>1.197688684724804</v>
+        <v>1.221677696848968</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45307</v>
       </c>
       <c r="B160">
-        <v>1.254479364780481</v>
+        <v>1.22426598093557</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45308</v>
       </c>
       <c r="B161">
-        <v>1.169873894886032</v>
+        <v>1.238461719501089</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45313</v>
       </c>
       <c r="B162">
-        <v>1.293696954622457</v>
+        <v>1.240651973990833</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45316</v>
       </c>
       <c r="B163">
-        <v>1.314087044005359</v>
+        <v>1.650294318907961</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45320</v>
       </c>
       <c r="B164">
-        <v>1.172934797018218</v>
+        <v>1.321855574988876</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45324</v>
       </c>
       <c r="B165">
-        <v>1.231106940564849</v>
+        <v>1.354241789547596</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45325</v>
       </c>
       <c r="B166">
-        <v>1.196845384660316</v>
+        <v>1.225249086266949</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45326</v>
       </c>
       <c r="B167">
-        <v>1.253636064715993</v>
+        <v>1.227837370353551</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45328</v>
       </c>
       <c r="B168">
-        <v>1.169030594821544</v>
+        <v>1.242033108919069</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45330</v>
       </c>
       <c r="B169">
-        <v>1.292853654557969</v>
+        <v>1.244223363408814</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45336</v>
       </c>
       <c r="B170">
-        <v>1.313243743940872</v>
+        <v>1.653865708325942</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45337</v>
       </c>
       <c r="B171">
-        <v>1.172091496953729</v>
+        <v>1.325426964406856</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45339</v>
       </c>
       <c r="B172">
-        <v>1.230263640500361</v>
+        <v>1.357813178965577</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45341</v>
       </c>
       <c r="B173">
-        <v>1.196002084595829</v>
+        <v>1.228820475684929</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45342</v>
       </c>
       <c r="B174">
-        <v>1.252792764651505</v>
+        <v>1.231408759771531</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45347</v>
       </c>
       <c r="B175">
-        <v>1.168187294757056</v>
+        <v>1.24560449833705</v>
       </c>
       <c r="C175">
         <v>1</v>
